--- a/stats_averages.xlsx
+++ b/stats_averages.xlsx
@@ -3051,7 +3051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AR24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3092,150 +3092,190 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>h2h_corners</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>average_cards</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>cb_cards</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>h2h_cards</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
         <is>
           <t>average_shots_on_target</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>cb_shots_on_target</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>h2h_shots_on_target</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
         <is>
           <t>average_total_shots</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>cb_total_shots</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>h2h_total_shots</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
         <is>
           <t>average_fouls</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>cb_fouls</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>h2h_fouls</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>average_goalkeeper_saves</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>cb_goalkeeper_saves</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>h2h_goalkeeper_saves</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
         <is>
           <t>average_throw_ins</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>cb_throw_ins</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>h2h_throw_ins</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
         <is>
           <t>average_offsides</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>cb_offsides</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>h2h_offsides</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
         <is>
           <t>average_corners_1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>average_corners_2</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>average_cards_1</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>average_cards_2</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>average_shots_on_target_1</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>average_shots_on_target_2</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>average_total_shots_1</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>average_total_shots_2</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>average_fouls_1</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>average_fouls_2</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>average_goalkeeper_saves_1</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>average_goalkeeper_saves_2</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>average_throw_ins_1</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>average_throw_ins_2</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>average_offsides_1</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>average_offsides_2</t>
         </is>
@@ -3268,92 +3308,132 @@
       <c r="F2" t="n">
         <v>8.5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4.1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>4.5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>26.35</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>26.5</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>28</v>
       </c>
-      <c r="N2" t="n">
+      <c r="R2" t="n">
         <v>27.5</v>
       </c>
-      <c r="O2" t="n">
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
         <v>6.35</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
         <v>37.59999999999999</v>
       </c>
-      <c r="R2" t="n">
+      <c r="X2" t="n">
         <v>43.5</v>
       </c>
-      <c r="S2" t="n">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Z2" t="n">
         <v>3.05</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AA2" t="n">
         <v>3.5</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
         <v>9</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AD2" t="n">
         <v>8.9</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AE2" t="n">
         <v>3.4</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AF2" t="n">
         <v>4.8</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AG2" t="n">
         <v>9</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AH2" t="n">
         <v>8.4</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AI2" t="n">
         <v>26.7</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AJ2" t="n">
         <v>26</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AK2" t="n">
         <v>27.7</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AL2" t="n">
         <v>28.3</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AM2" t="n">
         <v>7.1</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AN2" t="n">
         <v>5.6</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AO2" t="n">
         <v>37.3</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AP2" t="n">
         <v>37.9</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AQ2" t="n">
         <v>3.6</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AR2" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -3384,94 +3464,134 @@
       <c r="F3" t="n">
         <v>8.5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4.05</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>4.5</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7.550000000000001</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>23.9</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>21.5</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
         <v>26.8</v>
       </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
         <v>27.5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>5.199999999999999</v>
       </c>
-      <c r="P3" t="n">
+      <c r="U3" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
         <v>36.5</v>
       </c>
-      <c r="R3" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="X3" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
         <v>2.7</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AA3" t="n">
         <v>4.5</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
         <v>7.1</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AD3" t="n">
         <v>7.5</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AE3" t="n">
         <v>3.6</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AF3" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AG3" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AH3" t="n">
         <v>7.9</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AI3" t="n">
         <v>25.1</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AJ3" t="n">
         <v>22.7</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AK3" t="n">
         <v>25.2</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AL3" t="n">
         <v>28.4</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AM3" t="n">
         <v>4.6</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AN3" t="n">
         <v>5.8</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AO3" t="n">
         <v>30.6</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AP3" t="n">
         <v>42.4</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AQ3" t="n">
         <v>2.3</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AR3" t="n">
         <v>3.1</v>
       </c>
     </row>
@@ -3502,94 +3622,134 @@
       <c r="F4" t="n">
         <v>9.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>4.5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7.15</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>25.8</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>25.5</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
         <v>24.1</v>
       </c>
-      <c r="N4" t="n">
+      <c r="R4" t="n">
         <v>26.5</v>
       </c>
-      <c r="O4" t="n">
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
         <v>4.949999999999999</v>
       </c>
-      <c r="P4" t="n">
+      <c r="U4" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
         <v>36.7</v>
       </c>
-      <c r="R4" t="n">
+      <c r="X4" t="n">
         <v>37.5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
         <v>2.85</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AA4" t="n">
         <v>3.5</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
         <v>9</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AD4" t="n">
         <v>9.4</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AE4" t="n">
         <v>4.1</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AF4" t="n">
         <v>2.9</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AG4" t="n">
         <v>7.1</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AH4" t="n">
         <v>7.2</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AI4" t="n">
         <v>27.7</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AJ4" t="n">
         <v>23.9</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AK4" t="n">
         <v>24.6</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AL4" t="n">
         <v>23.6</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AM4" t="n">
         <v>5.3</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AN4" t="n">
         <v>4.6</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AO4" t="n">
         <v>34.5</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AP4" t="n">
         <v>38.9</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AQ4" t="n">
         <v>2.6</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AR4" t="n">
         <v>3.1</v>
       </c>
     </row>
@@ -3620,94 +3780,134 @@
       <c r="F5" t="n">
         <v>8.5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4.038888888888889</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>3.5</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>8.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>24.75</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>25.5</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>27.4</v>
       </c>
-      <c r="N5" t="n">
+      <c r="R5" t="n">
         <v>27.5</v>
       </c>
-      <c r="O5" t="n">
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
         <v>5.65</v>
       </c>
-      <c r="P5" t="n">
+      <c r="U5" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
         <v>37.1</v>
       </c>
-      <c r="R5" t="n">
+      <c r="X5" t="n">
         <v>37.5</v>
       </c>
-      <c r="S5" t="n">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
         <v>3.95</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AA5" t="n">
         <v>4.5</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
         <v>8.4</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AD5" t="n">
         <v>7.6</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AE5" t="n">
         <v>3.3</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AF5" t="n">
         <v>4.777777777777778</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AG5" t="n">
         <v>8.6</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AH5" t="n">
         <v>8</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AI5" t="n">
         <v>25.8</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AJ5" t="n">
         <v>23.7</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AK5" t="n">
         <v>26.8</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AL5" t="n">
         <v>28</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AM5" t="n">
         <v>6</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AN5" t="n">
         <v>5.3</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AO5" t="n">
         <v>37</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AP5" t="n">
         <v>37.2</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AQ5" t="n">
         <v>3.7</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AR5" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -3736,80 +3936,120 @@
         <v>11.3</v>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3.95</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>11.5</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>29.55</v>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
         <v>22.45</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
         <v>7.9</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
         <v>38</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
         <v>3.388888888888889</v>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
         <v>12.7</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AD6" t="n">
         <v>9.9</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AE6" t="n">
         <v>3.9</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AF6" t="n">
         <v>4</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AG6" t="n">
         <v>11.2</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AH6" t="n">
         <v>11.8</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AI6" t="n">
         <v>29</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AJ6" t="n">
         <v>30.1</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AK6" t="n">
         <v>21.9</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AL6" t="n">
         <v>23</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AM6" t="n">
         <v>8.6</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AN6" t="n">
         <v>7.2</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AO6" t="n">
         <v>37.2</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AP6" t="n">
         <v>38.8</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AQ6" t="n">
         <v>3.111111111111111</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AR6" t="n">
         <v>3.666666666666667</v>
       </c>
     </row>
@@ -3837,87 +4077,121 @@
       <c r="E7" t="n">
         <v>10.65</v>
       </c>
-      <c r="F7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3.461111111111111</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>9.85</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>28.1</v>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>20.4</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
         <v>7.35</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
         <v>39.05</v>
       </c>
-      <c r="R7" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
         <v>2.5</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
         <v>10.9</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AD7" t="n">
         <v>10.4</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AE7" t="n">
         <v>3.222222222222222</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AF7" t="n">
         <v>3.7</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AG7" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AH7" t="n">
         <v>10</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AI7" t="n">
         <v>26.3</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AJ7" t="n">
         <v>29.9</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AK7" t="n">
         <v>21.6</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AL7" t="n">
         <v>19.2</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AM7" t="n">
         <v>6.9</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AN7" t="n">
         <v>7.8</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AO7" t="n">
         <v>40.1</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AP7" t="n">
         <v>38</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AQ7" t="n">
         <v>2.6</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AR7" t="n">
         <v>2.4</v>
       </c>
     </row>
@@ -3945,87 +4219,121 @@
       <c r="E8" t="n">
         <v>11.05</v>
       </c>
-      <c r="F8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3.083333333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>10.95</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>28.45</v>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
         <v>22.75</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>7.8</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
         <v>36.1</v>
       </c>
-      <c r="R8" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
         <v>2.9</v>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
         <v>10.5</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AD8" t="n">
         <v>11.6</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AE8" t="n">
         <v>2.5</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AF8" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AG8" t="n">
         <v>11</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AH8" t="n">
         <v>10.9</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AI8" t="n">
         <v>28.6</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AJ8" t="n">
         <v>28.3</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AK8" t="n">
         <v>20.9</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AL8" t="n">
         <v>24.6</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AM8" t="n">
         <v>8.1</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AN8" t="n">
         <v>7.5</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AO8" t="n">
         <v>35.1</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AP8" t="n">
         <v>37.1</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AQ8" t="n">
         <v>2.8</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AR8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4056,94 +4364,134 @@
       <c r="F9" t="n">
         <v>10.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3.25</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>3.5</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>9.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>26.1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>27.5</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>19.45</v>
       </c>
-      <c r="N9" t="n">
+      <c r="R9" t="n">
         <v>20.5</v>
       </c>
-      <c r="O9" t="n">
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>5.6</v>
       </c>
-      <c r="P9" t="n">
+      <c r="U9" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
         <v>40.2</v>
       </c>
-      <c r="R9" t="n">
+      <c r="X9" t="n">
         <v>40.5</v>
       </c>
-      <c r="S9" t="n">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
         <v>4</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AA9" t="n">
         <v>3.5</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
         <v>8.5</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AD9" t="n">
         <v>11.2</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AE9" t="n">
         <v>2.9</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AF9" t="n">
         <v>3.6</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AG9" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AH9" t="n">
         <v>9.1</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AI9" t="n">
         <v>25.8</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AJ9" t="n">
         <v>26.4</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AK9" t="n">
         <v>19.2</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AL9" t="n">
         <v>19.7</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AM9" t="n">
         <v>5.9</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AN9" t="n">
         <v>5.3</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AO9" t="n">
         <v>37.6</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AP9" t="n">
         <v>42.8</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AQ9" t="n">
         <v>4.2</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AR9" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -4174,94 +4522,134 @@
       <c r="F10" t="n">
         <v>9.5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3.794444444444444</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>4.5</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>9</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>8.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>27.65</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>25.5</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>21.8</v>
       </c>
-      <c r="N10" t="n">
+      <c r="R10" t="n">
         <v>22.5</v>
       </c>
-      <c r="O10" t="n">
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
         <v>5.85</v>
       </c>
-      <c r="P10" t="n">
+      <c r="U10" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
         <v>38.45</v>
       </c>
-      <c r="R10" t="n">
+      <c r="X10" t="n">
         <v>39.5</v>
       </c>
-      <c r="S10" t="n">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
         <v>3.45</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AA10" t="n">
         <v>2.5</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
         <v>10.3</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AD10" t="n">
         <v>11.1</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AE10" t="n">
         <v>3.7</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AF10" t="n">
         <v>3.888888888888889</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AG10" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AH10" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AI10" t="n">
         <v>27.3</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AJ10" t="n">
         <v>28</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AK10" t="n">
         <v>24</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AL10" t="n">
         <v>19.6</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AM10" t="n">
         <v>6.1</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AN10" t="n">
         <v>5.6</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AO10" t="n">
         <v>35.1</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AP10" t="n">
         <v>41.8</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AQ10" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AR10" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -4292,94 +4680,134 @@
       <c r="F11" t="n">
         <v>8.5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4.1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>4.5</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>7.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>23.75</v>
       </c>
-      <c r="L11" t="n">
+      <c r="O11" t="n">
         <v>23.5</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>27.3</v>
       </c>
-      <c r="N11" t="n">
+      <c r="R11" t="n">
         <v>26.5</v>
       </c>
-      <c r="O11" t="n">
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
         <v>5.75</v>
       </c>
-      <c r="P11" t="n">
+      <c r="U11" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
         <v>35.45</v>
       </c>
-      <c r="R11" t="n">
+      <c r="X11" t="n">
         <v>35.5</v>
       </c>
-      <c r="S11" t="n">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
         <v>4.069444444444445</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AA11" t="n">
         <v>3.5</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
         <v>10.5</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AD11" t="n">
         <v>9.1</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AE11" t="n">
         <v>3.9</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AF11" t="n">
         <v>4.3</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AG11" t="n">
         <v>8</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AH11" t="n">
         <v>8</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AI11" t="n">
         <v>25.1</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AJ11" t="n">
         <v>22.4</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AK11" t="n">
         <v>27</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AL11" t="n">
         <v>27.6</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AM11" t="n">
         <v>6.1</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AN11" t="n">
         <v>5.4</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AO11" t="n">
         <v>39.1</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AP11" t="n">
         <v>31.8</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AQ11" t="n">
         <v>5.25</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AR11" t="n">
         <v>2.888888888888889</v>
       </c>
     </row>
@@ -4410,94 +4838,134 @@
       <c r="F12" t="n">
         <v>9.5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>3.5</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>8.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>22.85</v>
       </c>
-      <c r="L12" t="n">
+      <c r="O12" t="n">
         <v>22.5</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
         <v>23.7</v>
       </c>
-      <c r="N12" t="n">
+      <c r="R12" t="n">
         <v>24.5</v>
       </c>
-      <c r="O12" t="n">
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
         <v>6.3</v>
       </c>
-      <c r="P12" t="n">
+      <c r="U12" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
         <v>36</v>
       </c>
-      <c r="R12" t="n">
+      <c r="X12" t="n">
         <v>36.5</v>
       </c>
-      <c r="S12" t="n">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
         <v>3.373015873015873</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AA12" t="n">
         <v>2.5</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
         <v>7.9</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AD12" t="n">
         <v>10</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AE12" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AF12" t="n">
         <v>4.6</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AG12" t="n">
         <v>8.9</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AH12" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AI12" t="n">
         <v>23.3</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AJ12" t="n">
         <v>22.4</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AK12" t="n">
         <v>20.8</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AL12" t="n">
         <v>26.6</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AM12" t="n">
         <v>6.1</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AN12" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AO12" t="n">
         <v>34.8</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AP12" t="n">
         <v>37.2</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AQ12" t="n">
         <v>3.857142857142857</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AR12" t="n">
         <v>2.888888888888889</v>
       </c>
     </row>
@@ -4528,94 +4996,134 @@
       <c r="F13" t="n">
         <v>9.5</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>4.55</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>4.5</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>9.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>9.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>24.45</v>
       </c>
-      <c r="L13" t="n">
+      <c r="O13" t="n">
         <v>24.5</v>
       </c>
-      <c r="M13" t="n">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
         <v>24.9</v>
       </c>
-      <c r="N13" t="n">
+      <c r="R13" t="n">
         <v>25.5</v>
       </c>
-      <c r="O13" t="n">
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
         <v>6.6</v>
       </c>
-      <c r="P13" t="n">
+      <c r="U13" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
         <v>35.65000000000001</v>
       </c>
-      <c r="R13" t="n">
+      <c r="X13" t="n">
         <v>36.5</v>
       </c>
-      <c r="S13" t="n">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
         <v>2.888888888888889</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AA13" t="n">
         <v>2.5</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
         <v>9.4</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AD13" t="n">
         <v>10.1</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AE13" t="n">
         <v>5</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AF13" t="n">
         <v>4.1</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AG13" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AH13" t="n">
         <v>10</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AI13" t="n">
         <v>22.9</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AJ13" t="n">
         <v>26</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AK13" t="n">
         <v>24.4</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AL13" t="n">
         <v>25.4</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AM13" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AN13" t="n">
         <v>6.7</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AO13" t="n">
         <v>37.7</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AP13" t="n">
         <v>33.6</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AQ13" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AR13" t="n">
         <v>2.111111111111111</v>
       </c>
     </row>
@@ -4646,94 +5154,134 @@
       <c r="F14" t="n">
         <v>8.5</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>3.2</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>3.5</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>7.95</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>8.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>22.75</v>
       </c>
-      <c r="L14" t="n">
+      <c r="O14" t="n">
         <v>22.5</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
         <v>23.85</v>
       </c>
-      <c r="N14" t="n">
+      <c r="R14" t="n">
         <v>23.5</v>
       </c>
-      <c r="O14" t="n">
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
         <v>5.7</v>
       </c>
-      <c r="P14" t="n">
+      <c r="U14" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
         <v>35.1</v>
       </c>
-      <c r="R14" t="n">
+      <c r="X14" t="n">
         <v>35.5</v>
       </c>
-      <c r="S14" t="n">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
         <v>2.8</v>
       </c>
-      <c r="T14" t="n">
+      <c r="AA14" t="n">
         <v>2.5</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
         <v>9</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AD14" t="n">
         <v>8</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AE14" t="n">
         <v>3.2</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AF14" t="n">
         <v>3.2</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AG14" t="n">
         <v>6.9</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AH14" t="n">
         <v>9</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AI14" t="n">
         <v>22</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AJ14" t="n">
         <v>23.5</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AK14" t="n">
         <v>23.6</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AL14" t="n">
         <v>24.1</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AM14" t="n">
         <v>4.7</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AN14" t="n">
         <v>6.7</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AO14" t="n">
         <v>32.7</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AP14" t="n">
         <v>37.5</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AQ14" t="n">
         <v>2.8</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AR14" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -4764,94 +5312,134 @@
       <c r="F15" t="n">
         <v>9.5</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4.65</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>4.5</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>7.550000000000001</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>7.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>24.85</v>
       </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>23.5</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
         <v>25.1</v>
       </c>
-      <c r="N15" t="n">
+      <c r="R15" t="n">
         <v>26.5</v>
       </c>
-      <c r="O15" t="n">
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
         <v>4.8</v>
       </c>
-      <c r="P15" t="n">
+      <c r="U15" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
         <v>38.4</v>
       </c>
-      <c r="R15" t="n">
+      <c r="X15" t="n">
         <v>37.5</v>
       </c>
-      <c r="S15" t="n">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
         <v>3.922222222222222</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AA15" t="n">
         <v>3.5</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
         <v>8.5</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AD15" t="n">
         <v>10.8</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AE15" t="n">
         <v>4.7</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AF15" t="n">
         <v>4.6</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AG15" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AH15" t="n">
         <v>6.8</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AI15" t="n">
         <v>26.6</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AJ15" t="n">
         <v>23.1</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AK15" t="n">
         <v>25.9</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AL15" t="n">
         <v>24.3</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AM15" t="n">
         <v>5.5</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AN15" t="n">
         <v>4.1</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AO15" t="n">
         <v>35.8</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AP15" t="n">
         <v>41</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AQ15" t="n">
         <v>3.4</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AR15" t="n">
         <v>4.444444444444445</v>
       </c>
     </row>
@@ -4880,80 +5468,120 @@
         <v>9.399999999999999</v>
       </c>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>4.65</v>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>25.1</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
         <v>24.4</v>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
         <v>6.75</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
         <v>40.59999999999999</v>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
         <v>3.855555555555555</v>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
         <v>9.6</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AD16" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AE16" t="n">
         <v>4.1</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AF16" t="n">
         <v>5.2</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AG16" t="n">
         <v>8.4</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AH16" t="n">
         <v>10.2</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AI16" t="n">
         <v>24.3</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AJ16" t="n">
         <v>25.9</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AK16" t="n">
         <v>24.7</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AL16" t="n">
         <v>24.1</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AM16" t="n">
         <v>6.3</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AN16" t="n">
         <v>7.2</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AO16" t="n">
         <v>39.4</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AP16" t="n">
         <v>41.8</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AQ16" t="n">
         <v>4.111111111111111</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AR16" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -4984,94 +5612,134 @@
       <c r="F17" t="n">
         <v>9.5</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>4.5</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>8.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>24.95</v>
       </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
         <v>25.5</v>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
         <v>22.4</v>
       </c>
-      <c r="N17" t="n">
+      <c r="R17" t="n">
         <v>21.5</v>
       </c>
-      <c r="O17" t="n">
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
         <v>6.3</v>
       </c>
-      <c r="P17" t="n">
+      <c r="U17" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
         <v>40.3</v>
       </c>
-      <c r="R17" t="n">
+      <c r="X17" t="n">
         <v>39.5</v>
       </c>
-      <c r="S17" t="n">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
         <v>4.022222222222222</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AA17" t="n">
         <v>3.5</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
         <v>10.2</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AD17" t="n">
         <v>10.6</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AE17" t="n">
         <v>6.9</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AF17" t="n">
         <v>3.1</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AG17" t="n">
         <v>9</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AH17" t="n">
         <v>7.9</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AI17" t="n">
         <v>26</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AJ17" t="n">
         <v>23.9</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AK17" t="n">
         <v>25.1</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AL17" t="n">
         <v>19.7</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AM17" t="n">
         <v>6.6</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AN17" t="n">
         <v>6</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AO17" t="n">
         <v>44.4</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AP17" t="n">
         <v>36.2</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AQ17" t="n">
         <v>3.6</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AR17" t="n">
         <v>4.444444444444445</v>
       </c>
     </row>
@@ -5102,94 +5770,134 @@
       <c r="F18" t="n">
         <v>9.5</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>4.338888888888889</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>4.5</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>8.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>27.1</v>
       </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>25.5</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>23.6</v>
       </c>
-      <c r="N18" t="n">
+      <c r="R18" t="n">
         <v>24.5</v>
       </c>
-      <c r="O18" t="n">
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
         <v>6.7</v>
       </c>
-      <c r="P18" t="n">
+      <c r="U18" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
         <v>37.5</v>
       </c>
-      <c r="R18" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="X18" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
         <v>3.9125</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AA18" t="n">
         <v>3.5</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
         <v>11</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AD18" t="n">
         <v>10</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AE18" t="n">
         <v>4.777777777777778</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AF18" t="n">
         <v>3.9</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AG18" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AH18" t="n">
         <v>10.4</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AI18" t="n">
         <v>25.5</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AJ18" t="n">
         <v>28.7</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AK18" t="n">
         <v>22.8</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AL18" t="n">
         <v>24.4</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AM18" t="n">
         <v>6.2</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AN18" t="n">
         <v>7.2</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AO18" t="n">
         <v>39.2</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AP18" t="n">
         <v>35.8</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AQ18" t="n">
         <v>3.125</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AR18" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -5220,84 +5928,128 @@
       <c r="F19" t="n">
         <v>9.5</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>5.227777777777778</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>4.5</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>11</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>29.95</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
         <v>25.9</v>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
         <v>7.55</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
         <v>35.55</v>
       </c>
-      <c r="R19" t="n">
+      <c r="X19" t="n">
         <v>37.5</v>
       </c>
-      <c r="S19" t="n">
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
         <v>4.016666666666667</v>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="AC19" t="n">
         <v>10.6</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AD19" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AE19" t="n">
         <v>4.555555555555555</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AF19" t="n">
         <v>5.9</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AG19" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AH19" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AI19" t="n">
         <v>27.5</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AJ19" t="n">
         <v>32.4</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AK19" t="n">
         <v>26.4</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AL19" t="n">
         <v>25.4</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AM19" t="n">
         <v>6.9</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AN19" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AO19" t="n">
         <v>35.2</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AP19" t="n">
         <v>35.9</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AQ19" t="n">
         <v>3.7</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AR19" t="n">
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -5326,80 +6078,120 @@
         <v>9.050000000000001</v>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>5.166666666666666</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>7.1</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>24.05</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
         <v>27.85</v>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
         <v>5.2</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
         <v>40.59999999999999</v>
       </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
         <v>2.9</v>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
         <v>8.5</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AD20" t="n">
         <v>9.6</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AE20" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AF20" t="n">
         <v>6</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AG20" t="n">
         <v>5</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AH20" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AI20" t="n">
         <v>20.8</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AJ20" t="n">
         <v>27.3</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AK20" t="n">
         <v>25.2</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AL20" t="n">
         <v>30.5</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AM20" t="n">
         <v>3.4</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AN20" t="n">
         <v>7</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AO20" t="n">
         <v>42.4</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AP20" t="n">
         <v>38.8</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AQ20" t="n">
         <v>3.3</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AR20" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -5430,84 +6222,124 @@
       <c r="F21" t="n">
         <v>9.5</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>4.95</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>5.5</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>8.5</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>27.25</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
         <v>25.8</v>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
         <v>6.466666666666667</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
         <v>37.5</v>
       </c>
-      <c r="R21" t="n">
+      <c r="X21" t="n">
         <v>36.5</v>
       </c>
-      <c r="S21" t="n">
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
         <v>2.4125</v>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
         <v>9.4</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AD21" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AE21" t="n">
         <v>5.4</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AF21" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AG21" t="n">
         <v>8</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AH21" t="n">
         <v>9</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AI21" t="n">
         <v>26.6</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AJ21" t="n">
         <v>27.9</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AK21" t="n">
         <v>27.3</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AL21" t="n">
         <v>24.3</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AM21" t="n">
         <v>6.333333333333333</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AN21" t="n">
         <v>6.6</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AO21" t="n">
         <v>42.4</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AP21" t="n">
         <v>32.6</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AQ21" t="n">
         <v>2.2</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AR21" t="n">
         <v>2.625</v>
       </c>
     </row>
@@ -5538,90 +6370,130 @@
       <c r="F22" t="n">
         <v>9.5</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>4.85</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="O22" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="R22" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="X22" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>2.327777777777778</v>
+      </c>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE22" t="n">
         <v>5.5</v>
       </c>
-      <c r="I22" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>33.75</v>
-      </c>
-      <c r="R22" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.327777777777778</v>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="V22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="W22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="AF22" t="n">
         <v>4.2</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AG22" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AH22" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AI22" t="n">
         <v>25.1</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AJ22" t="n">
         <v>22.6</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AK22" t="n">
         <v>26.4</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AL22" t="n">
         <v>31.4</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AM22" t="n">
         <v>6.4</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AN22" t="n">
         <v>5.8</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AO22" t="n">
         <v>30.1</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AP22" t="n">
         <v>37.4</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AQ22" t="n">
         <v>2.555555555555555</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AR22" t="n">
         <v>2.1</v>
       </c>
     </row>
@@ -5650,80 +6522,120 @@
         <v>9.100000000000001</v>
       </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>5.05</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>24.95</v>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
         <v>24.1</v>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
         <v>5.95</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="n">
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
         <v>39.4</v>
       </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
         <v>3.7</v>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="n">
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
         <v>8.9</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AD23" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AE23" t="n">
         <v>5.3</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AF23" t="n">
         <v>4.8</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AG23" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AH23" t="n">
         <v>10.3</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AI23" t="n">
         <v>26.3</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AJ23" t="n">
         <v>23.6</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AK23" t="n">
         <v>23</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AL23" t="n">
         <v>25.2</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AM23" t="n">
         <v>5.7</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AN23" t="n">
         <v>6.2</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AO23" t="n">
         <v>41.9</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AP23" t="n">
         <v>36.9</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AQ23" t="n">
         <v>4.2</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AR23" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -5754,84 +6666,130 @@
       <c r="F24" t="n">
         <v>9.5</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>4.85</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>5.5</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>8.25</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>26.25</v>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
         <v>26.05</v>
       </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="n">
+      <c r="R24" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
         <v>5.6</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="n">
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
         <v>38.25</v>
       </c>
-      <c r="R24" t="n">
+      <c r="X24" t="n">
         <v>37.5</v>
       </c>
-      <c r="S24" t="n">
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
         <v>3.4</v>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="n">
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
         <v>10.2</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AD24" t="n">
         <v>8</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AE24" t="n">
         <v>4.8</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AF24" t="n">
         <v>4.9</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AG24" t="n">
         <v>9.1</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AH24" t="n">
         <v>7.4</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AI24" t="n">
         <v>29</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AJ24" t="n">
         <v>23.5</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AK24" t="n">
         <v>26.1</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AL24" t="n">
         <v>26</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AM24" t="n">
         <v>5.8</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AN24" t="n">
         <v>5.4</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AO24" t="n">
         <v>38.9</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AP24" t="n">
         <v>37.6</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AQ24" t="n">
         <v>4.2</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AR24" t="n">
         <v>2.6</v>
       </c>
     </row>

--- a/stats_averages.xlsx
+++ b/stats_averages.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,31 +582,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Napoli - Roma</t>
+          <t>Cagliari - Lazio</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>13981665</v>
+        <v>13981674</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -614,106 +614,106 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.3</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="I2" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J2" t="n">
         <v>7.1</v>
       </c>
-      <c r="J2" t="n">
-        <v>7.5</v>
-      </c>
       <c r="K2" t="n">
-        <v>4.05</v>
+        <v>4.905555555555555</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="M2" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="N2" t="n">
-        <v>7.550000000000001</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.9</v>
+        <v>25.05</v>
       </c>
       <c r="R2" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="S2" t="n">
-        <v>22.7</v>
+        <v>25.4</v>
       </c>
       <c r="T2" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="U2" t="n">
-        <v>25.2</v>
+        <v>28.6</v>
       </c>
       <c r="V2" t="n">
-        <v>28.4</v>
+        <v>24.4</v>
       </c>
       <c r="W2" t="n">
-        <v>5.199999999999999</v>
+        <v>5.25</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>36.5</v>
+        <v>34.65</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.6</v>
+        <v>36.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.4</v>
+        <v>32.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.7</v>
+        <v>2.277777777777778</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.3</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.1</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Torino - Bologna</t>
+          <t>Juventus - Como</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13981669</v>
+        <v>13981678</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -724,1300 +724,1300 @@
         <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="J3" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.038888888888889</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="L3" t="n">
-        <v>3.3</v>
+        <v>3.444444444444445</v>
       </c>
       <c r="M3" t="n">
-        <v>4.777777777777778</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>8.300000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>8.6</v>
+        <v>10.4</v>
       </c>
       <c r="P3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>24.75</v>
+        <v>25.1</v>
       </c>
       <c r="R3" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="S3" t="n">
-        <v>23.7</v>
+        <v>22.6</v>
       </c>
       <c r="T3" t="n">
-        <v>27.4</v>
+        <v>22.4</v>
       </c>
       <c r="U3" t="n">
-        <v>26.8</v>
+        <v>22</v>
       </c>
       <c r="V3" t="n">
-        <v>28</v>
+        <v>22.8</v>
       </c>
       <c r="W3" t="n">
-        <v>5.65</v>
+        <v>6.6</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>37.1</v>
+        <v>35.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>37</v>
+        <v>38.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>37.2</v>
+        <v>32.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam - NEC Nijmegen</t>
+          <t>Lecce - Inter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sparta</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NEC</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>14053589</v>
+        <v>13981679</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>12.7</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>9.9</v>
+        <v>8.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.688888888888889</v>
       </c>
       <c r="L4" t="n">
-        <v>3.9</v>
+        <v>3.777777777777778</v>
       </c>
       <c r="M4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="U4" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="X4" t="n">
         <v>4</v>
       </c>
-      <c r="N4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>29.55</v>
-      </c>
-      <c r="R4" t="n">
-        <v>29</v>
-      </c>
-      <c r="S4" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="U4" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="V4" t="n">
-        <v>23</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8.6</v>
-      </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>38</v>
+        <v>37.65</v>
       </c>
       <c r="AA4" t="n">
-        <v>37.2</v>
+        <v>43.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>38.8</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.388888888888889</v>
+        <v>3.625</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.111111111111111</v>
+        <v>4.25</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.666666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SC Heerenveen - PEC Zwolle</t>
+          <t>West Ham United - Bournemouth</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SC Heerenveen</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>14053610</v>
+        <v>14023969</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>11.05</v>
+        <v>11.3</v>
       </c>
       <c r="I5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>11.6</v>
+        <v>12.8</v>
       </c>
       <c r="K5" t="n">
-        <v>3.083333333333333</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="M5" t="n">
-        <v>3.666666666666667</v>
+        <v>3.8</v>
       </c>
       <c r="N5" t="n">
-        <v>10.95</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>10.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>28.45</v>
+        <v>26.15</v>
       </c>
       <c r="R5" t="n">
-        <v>28.6</v>
+        <v>24.5</v>
       </c>
       <c r="S5" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="T5" t="n">
-        <v>22.75</v>
+        <v>21.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>22.9</v>
       </c>
       <c r="V5" t="n">
-        <v>24.6</v>
+        <v>20.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.8</v>
+        <v>6.222222222222222</v>
       </c>
       <c r="X5" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.5</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="Z5" t="n">
-        <v>36.1</v>
+        <v>37.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>35.1</v>
+        <v>38.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>37.1</v>
+        <v>36.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.9</v>
+        <v>2.905555555555556</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>3</v>
+        <v>3.111111111111111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RB Leipzig - VfL Wolfsburg</t>
+          <t>Brentford - Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>VfL Wolfsburg</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>14062210</v>
+        <v>14024006</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9.85</v>
+        <v>10.15</v>
       </c>
       <c r="I6" t="n">
-        <v>8.5</v>
+        <v>10.6</v>
       </c>
       <c r="J6" t="n">
-        <v>11.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="L6" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="M6" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="N6" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.1</v>
+        <v>24.2</v>
       </c>
       <c r="R6" t="n">
-        <v>25.8</v>
+        <v>23.8</v>
       </c>
       <c r="S6" t="n">
-        <v>26.4</v>
+        <v>24.6</v>
       </c>
       <c r="T6" t="n">
-        <v>19.45</v>
+        <v>21.8</v>
       </c>
       <c r="U6" t="n">
-        <v>19.2</v>
+        <v>21.4</v>
       </c>
       <c r="V6" t="n">
-        <v>19.7</v>
+        <v>22.2</v>
       </c>
       <c r="W6" t="n">
-        <v>5.6</v>
+        <v>5.550000000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>40.2</v>
+        <v>35.45</v>
       </c>
       <c r="AA6" t="n">
-        <v>37.6</v>
+        <v>35.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>42.8</v>
+        <v>35.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>4</v>
+        <v>3.255555555555556</v>
       </c>
       <c r="AD6" t="n">
-        <v>4.2</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FC Augsburg - 1. FC Heidenheim</t>
+          <t>Chelsea - Burnley</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FC Augsburg</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. FC Heidenheim</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>14062211</v>
+        <v>14024007</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10.7</v>
+        <v>9.1</v>
       </c>
       <c r="I7" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="J7" t="n">
-        <v>11.1</v>
+        <v>7.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.794444444444444</v>
+        <v>4.45</v>
       </c>
       <c r="L7" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>3.888888888888889</v>
+        <v>2.9</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.65</v>
+        <v>26.7</v>
       </c>
       <c r="R7" t="n">
-        <v>27.3</v>
+        <v>25.3</v>
       </c>
       <c r="S7" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="T7" t="n">
-        <v>21.8</v>
+        <v>20.1</v>
       </c>
       <c r="U7" t="n">
-        <v>24</v>
+        <v>21.4</v>
       </c>
       <c r="V7" t="n">
-        <v>19.6</v>
+        <v>18.8</v>
       </c>
       <c r="W7" t="n">
         <v>5.85</v>
       </c>
       <c r="X7" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>38.45</v>
+        <v>33.35</v>
       </c>
       <c r="AA7" t="n">
-        <v>35.1</v>
+        <v>29.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>41.8</v>
+        <v>37.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.45</v>
+        <v>2.883333333333333</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Metz - Auxerre</t>
+          <t>Manchester City - Newcastle United</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>14064493</v>
+        <v>14024010</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8.949999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="I8" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.133333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>3.666666666666667</v>
+        <v>4.6</v>
       </c>
       <c r="M8" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="N8" t="n">
-        <v>8.550000000000001</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>22.85</v>
+        <v>26.1</v>
       </c>
       <c r="R8" t="n">
-        <v>23.3</v>
+        <v>24.7</v>
       </c>
       <c r="S8" t="n">
-        <v>22.4</v>
+        <v>27.5</v>
       </c>
       <c r="T8" t="n">
-        <v>23.7</v>
+        <v>22</v>
       </c>
       <c r="U8" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="V8" t="n">
         <v>20.8</v>
       </c>
-      <c r="V8" t="n">
-        <v>26.6</v>
-      </c>
       <c r="W8" t="n">
-        <v>6.3</v>
+        <v>5.550000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>32.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>34.8</v>
+        <v>34.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>37.2</v>
+        <v>31.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.373015873015873</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.857142857142857</v>
+        <v>4.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.888888888888889</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Olympique Lyonnais - Nice</t>
+          <t>Aston Villa - Leeds United</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Olympique Lyonnais</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>14064495</v>
+        <v>14025215</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9.75</v>
+        <v>10.95</v>
       </c>
       <c r="I9" t="n">
-        <v>9.4</v>
+        <v>10.6</v>
       </c>
       <c r="J9" t="n">
-        <v>10.1</v>
+        <v>11.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.55</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="M9" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="N9" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.45</v>
+        <v>26.15</v>
       </c>
       <c r="R9" t="n">
-        <v>22.9</v>
+        <v>27.2</v>
       </c>
       <c r="S9" t="n">
-        <v>26</v>
+        <v>25.1</v>
       </c>
       <c r="T9" t="n">
-        <v>24.9</v>
+        <v>19.35</v>
       </c>
       <c r="U9" t="n">
-        <v>24.4</v>
+        <v>20</v>
       </c>
       <c r="V9" t="n">
-        <v>25.4</v>
+        <v>18.7</v>
       </c>
       <c r="W9" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.7</v>
+        <v>4.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>35.65000000000001</v>
+        <v>33.85</v>
       </c>
       <c r="AA9" t="n">
-        <v>37.7</v>
+        <v>29.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>33.6</v>
+        <v>38.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.888888888888889</v>
+        <v>4.461111111111111</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.666666666666667</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.111111111111111</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lorient - Angers</t>
+          <t>AFC Ajax - NEC Nijmegen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>AFC Ajax</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>14064497</v>
+        <v>14053625</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>4.305555555555555</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="M10" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>7.95</v>
+        <v>11.15</v>
       </c>
       <c r="O10" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="R10" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="V10" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.9</v>
-      </c>
-      <c r="P10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="R10" t="n">
-        <v>22</v>
-      </c>
-      <c r="S10" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="U10" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="V10" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>6.7</v>
       </c>
       <c r="Z10" t="n">
         <v>35.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>32.7</v>
+        <v>30.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>37.5</v>
+        <v>39.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.8</v>
+        <v>3.316666666666666</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.8</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Levante UD - Valencia</t>
+          <t>NAC Breda - FC Volendam</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Levante UD</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14083396</v>
+        <v>14053631</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9.65</v>
+        <v>10.55</v>
       </c>
       <c r="I11" t="n">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="J11" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.127777777777778</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.555555555555555</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" t="n">
         <v>10.8</v>
       </c>
-      <c r="K11" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.550000000000001</v>
-      </c>
-      <c r="O11" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6.8</v>
-      </c>
       <c r="Q11" t="n">
-        <v>24.85</v>
+        <v>28.55</v>
       </c>
       <c r="R11" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="S11" t="n">
-        <v>23.1</v>
+        <v>29.9</v>
       </c>
       <c r="T11" t="n">
-        <v>25.1</v>
+        <v>22.65</v>
       </c>
       <c r="U11" t="n">
-        <v>25.9</v>
+        <v>23.3</v>
       </c>
       <c r="V11" t="n">
-        <v>24.3</v>
+        <v>22</v>
       </c>
       <c r="W11" t="n">
-        <v>4.8</v>
+        <v>7.75</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.1</v>
+        <v>8.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>38.4</v>
+        <v>37.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>35.8</v>
+        <v>40.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>34.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.922222222222222</v>
+        <v>3.622222222222222</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.4</v>
+        <v>3.444444444444445</v>
       </c>
       <c r="AE11" t="n">
-        <v>4.444444444444445</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rayo Vallecano - Atlético Madrid</t>
+          <t>PSV Eindhoven - SC Heerenveen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Atlético Madrid</t>
+          <t>SC Heerenveen</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atl. Madrid</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>14083472</v>
+        <v>14053638</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10.4</v>
+        <v>11.3</v>
       </c>
       <c r="I12" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N12" t="n">
         <v>10.2</v>
       </c>
-      <c r="J12" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8.449999999999999</v>
-      </c>
       <c r="O12" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>7.9</v>
+        <v>10.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.95</v>
+        <v>27</v>
       </c>
       <c r="R12" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="S12" t="n">
-        <v>23.9</v>
+        <v>27.9</v>
       </c>
       <c r="T12" t="n">
-        <v>22.4</v>
+        <v>20.1</v>
       </c>
       <c r="U12" t="n">
-        <v>25.1</v>
+        <v>19.2</v>
       </c>
       <c r="V12" t="n">
-        <v>19.7</v>
+        <v>21</v>
       </c>
       <c r="W12" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="X12" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>40.3</v>
+        <v>35.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>44.4</v>
+        <v>34.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.022222222222222</v>
+        <v>3.066666666666666</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.6</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AE12" t="n">
-        <v>4.444444444444445</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mallorca - Real Betis</t>
+          <t>FC Bayern München - Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>FC Bayern München</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Bayern</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Frankfurt</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>14083509</v>
+        <v>14062215</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10.5</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="K13" t="n">
-        <v>4.338888888888889</v>
+        <v>4.5625</v>
       </c>
       <c r="L13" t="n">
-        <v>4.777777777777778</v>
+        <v>4.125</v>
       </c>
       <c r="M13" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>9.800000000000001</v>
+        <v>10.85</v>
       </c>
       <c r="O13" t="n">
-        <v>9.199999999999999</v>
+        <v>12.9</v>
       </c>
       <c r="P13" t="n">
-        <v>10.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="R13" t="n">
-        <v>25.5</v>
+        <v>29.7</v>
       </c>
       <c r="S13" t="n">
-        <v>28.7</v>
+        <v>23.3</v>
       </c>
       <c r="T13" t="n">
-        <v>23.6</v>
+        <v>18.8</v>
       </c>
       <c r="U13" t="n">
-        <v>22.8</v>
+        <v>15.5</v>
       </c>
       <c r="V13" t="n">
-        <v>24.4</v>
+        <v>22.1</v>
       </c>
       <c r="W13" t="n">
-        <v>6.7</v>
+        <v>6.25</v>
       </c>
       <c r="X13" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>37.5</v>
+        <v>36.15</v>
       </c>
       <c r="AA13" t="n">
-        <v>39.2</v>
+        <v>31.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>35.8</v>
+        <v>40.9</v>
       </c>
       <c r="AC13" t="n">
-        <v>3.9125</v>
+        <v>4.35</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.125</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Başakşehir FK - Beşiktaş</t>
+          <t>RB Leipzig - Borussia Dortmund</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Başakşehir FK</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Başakşehir</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>14109803</v>
+        <v>14062218</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Super Lig</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9.699999999999999</v>
+        <v>8.899999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>10.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K14" t="n">
-        <v>5.227777777777778</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.555555555555555</v>
+        <v>2.9</v>
       </c>
       <c r="M14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.649999999999999</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="U14" t="n">
+        <v>19</v>
+      </c>
+      <c r="V14" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="W14" t="n">
         <v>5.9</v>
       </c>
-      <c r="N14" t="n">
-        <v>11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>29.95</v>
-      </c>
-      <c r="R14" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="U14" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="V14" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7.55</v>
-      </c>
       <c r="X14" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>35.55</v>
+        <v>39.05</v>
       </c>
       <c r="AA14" t="n">
-        <v>35.2</v>
+        <v>38.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>35.9</v>
+        <v>39.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.016666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.7</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Göztepe - Kayserispor</t>
+          <t>1. FC Union Berlin - Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Göztepe</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Göztepe</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>14109809</v>
+        <v>14062219</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Super Lig</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9.100000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>4.95</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="M15" t="n">
         <v>4.5</v>
@@ -2026,108 +2026,108 @@
         <v>8.5</v>
       </c>
       <c r="O15" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="P15" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.25</v>
+        <v>25</v>
       </c>
       <c r="R15" t="n">
-        <v>26.6</v>
+        <v>24.3</v>
       </c>
       <c r="S15" t="n">
-        <v>27.9</v>
+        <v>25.7</v>
       </c>
       <c r="T15" t="n">
-        <v>25.8</v>
+        <v>20.3</v>
       </c>
       <c r="U15" t="n">
-        <v>27.3</v>
+        <v>21.7</v>
       </c>
       <c r="V15" t="n">
-        <v>24.3</v>
+        <v>18.9</v>
       </c>
       <c r="W15" t="n">
-        <v>6.466666666666667</v>
+        <v>5.6</v>
       </c>
       <c r="X15" t="n">
-        <v>6.333333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>37.5</v>
+        <v>37.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>42.4</v>
+        <v>42</v>
       </c>
       <c r="AB15" t="n">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.4125</v>
+        <v>2.505555555555556</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.2</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sporting - Famalicão</t>
+          <t>VfL Wolfsburg - FC Augsburg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sporting</t>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sporting</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>14288994</v>
+        <v>14062220</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Liga Portugal Betclic</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="I16" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J16" t="n">
-        <v>9.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="K16" t="n">
-        <v>4.85</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="N16" t="n">
         <v>9.25</v>
@@ -2139,263 +2139,1761 @@
         <v>8.699999999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.85</v>
+        <v>26.95</v>
       </c>
       <c r="R16" t="n">
-        <v>25.1</v>
+        <v>26.9</v>
       </c>
       <c r="S16" t="n">
-        <v>22.6</v>
+        <v>27</v>
       </c>
       <c r="T16" t="n">
-        <v>28.9</v>
+        <v>21.45</v>
       </c>
       <c r="U16" t="n">
-        <v>26.4</v>
+        <v>19.7</v>
       </c>
       <c r="V16" t="n">
-        <v>31.4</v>
+        <v>23.2</v>
       </c>
       <c r="W16" t="n">
+        <v>6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.1</v>
       </c>
-      <c r="X16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>5.8</v>
-      </c>
       <c r="Z16" t="n">
-        <v>33.75</v>
+        <v>39.15000000000001</v>
       </c>
       <c r="AA16" t="n">
-        <v>30.1</v>
+        <v>42.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>37.4</v>
+        <v>36.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.327777777777778</v>
+        <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.555555555555555</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.1</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AVS - Futebol SAD - Estoril Praia</t>
+          <t>1. FC Köln - TSG Hoffenheim</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AVS - Futebol SAD</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Estoril Praia</t>
+          <t>TSG Hoffenheim</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Köln</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>14288998</v>
+        <v>14062223</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Liga Portugal Betclic</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9.100000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="K17" t="n">
-        <v>5.05</v>
+        <v>4.177777777777777</v>
       </c>
       <c r="L17" t="n">
-        <v>5.3</v>
+        <v>4.555555555555555</v>
       </c>
       <c r="M17" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="N17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.399999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>24.95</v>
+        <v>26.65</v>
       </c>
       <c r="R17" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="S17" t="n">
-        <v>23.6</v>
+        <v>26.6</v>
       </c>
       <c r="T17" t="n">
-        <v>24.1</v>
+        <v>19.6</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="V17" t="n">
-        <v>25.2</v>
+        <v>22.2</v>
       </c>
       <c r="W17" t="n">
-        <v>5.95</v>
+        <v>6.35</v>
       </c>
       <c r="X17" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>39.4</v>
+        <v>40.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>41.9</v>
+        <v>38.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>36.9</v>
+        <v>43.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>3.7</v>
+        <v>3.622222222222222</v>
       </c>
       <c r="AD17" t="n">
-        <v>4.2</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AE17" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CD Nacional - FC Porto</t>
+          <t>Real Sociedad - Real Oviedo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>14081792</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>25</v>
+      </c>
+      <c r="R18" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="S18" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="U18" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="V18" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>4.772222222222222</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>4.444444444444445</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Osasuna - Real Madrid</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>14081794</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="R19" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="U19" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2.933333333333334</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Atlético Madrid - Espanyol</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Atl. Madrid</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>14083561</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.100000000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>23</v>
+      </c>
+      <c r="R20" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>4.444444444444445</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>3.555555555555555</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Real Betis - Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>14083572</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>39.55</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Eyüpspor - Gençlerbirliği</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Eyüpspor</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Gençlerbirliği</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Eyüpspor</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Gençlerbirliği</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>14109810</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Super Lig</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.394444444444445</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.888888888888889</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10</v>
+      </c>
+      <c r="P22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="T22" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="U22" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.949999999999999</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Alanyaspor - Başakşehir FK</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Başakşehir FK</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Başakşehir</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>14109816</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Super Lig</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.372222222222222</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.444444444444445</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="O23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="T23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="U23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Konyaspor - Galatasaray</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>14109818</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Super Lig</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8.649999999999999</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain - Metz</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>14167865</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.111111111111111</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.555555555555555</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O25" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="R25" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>24</v>
+      </c>
+      <c r="T25" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="U25" t="n">
+        <v>19</v>
+      </c>
+      <c r="V25" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3.708333333333333</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Toulouse - Paris FC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Paris FC</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>14167871</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8.649999999999999</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="P26" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="S26" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="T26" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="U26" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>3.222222222222222</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>3.777777777777778</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RC Lens - AS Monaco</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RC Lens</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AS Monaco</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>AS Monaco</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>14167892</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="S27" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="U27" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>4.284722222222222</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>4.444444444444445</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FC Alverca - Santa Clara</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FC Alverca</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>14288799</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="R28" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>5.077777777777778</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>4.555555555555555</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.761111111111111</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2.222222222222222</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FC Arouca - CD Nacional</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>CD Nacional</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FC Porto</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Nacional</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>14288999</v>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="F29" t="n">
+        <v>14288800</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Liga Portugal Betclic</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J29" t="n">
         <v>10.2</v>
       </c>
-      <c r="J18" t="n">
-        <v>8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="K29" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>24</v>
+      </c>
+      <c r="S29" t="n">
+        <v>27</v>
+      </c>
+      <c r="T29" t="n">
+        <v>26</v>
+      </c>
+      <c r="U29" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="X29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Moreirense - Sporting</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sporting</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sporting</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>14288802</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="P30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="R30" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="W30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>34.90000000000001</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>3.444444444444445</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>2.888888888888889</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sporting Braga - Vitória SC</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Vitória SC</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>14288803</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="R31" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="T31" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="U31" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="V31" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.805555555555555</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.111111111111111</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Benfica - AVS - Futebol SAD</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AVS - Futebol SAD</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>14289000</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="L32" t="n">
         <v>4.9</v>
       </c>
-      <c r="N18" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O18" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="R18" t="n">
-        <v>29</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="M32" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P32" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="R32" t="n">
         <v>23.5</v>
       </c>
-      <c r="T18" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="U18" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>26</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="S32" t="n">
+        <v>27</v>
+      </c>
+      <c r="T32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="V32" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="W32" t="n">
+        <v>5.699999999999999</v>
+      </c>
+      <c r="X32" t="n">
         <v>5.6</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y32" t="n">
         <v>5.8</v>
       </c>
-      <c r="Y18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>38.25</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>2.6</v>
+      <c r="Z32" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>3.038888888888889</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +3907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR18"/>
+  <dimension ref="A1:AR32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2647,154 +4145,118 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Napoli - Roma</t>
+          <t>Cagliari - Lazio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.3</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>8.5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3/5</t>
+          <t>2/5</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.05</v>
+        <v>4.905555555555555</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3/5</t>
+          <t>2/4</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>7.550000000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1/5</t>
-        </is>
-      </c>
+        <v>7.649999999999999</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
+        <v>25.05</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R2" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
+        <v>26.5</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>5.199999999999999</v>
-      </c>
-      <c r="U2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="n">
+        <v>2.277777777777778</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.111111111111111</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="AM2" t="n">
         <v>5.5</v>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>3/5</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
-      <c r="Z2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>4.6</v>
-      </c>
       <c r="AN2" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>30.6</v>
+        <v>36.4</v>
       </c>
       <c r="AP2" t="n">
-        <v>42.4</v>
+        <v>32.9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.3</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.1</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -2805,17 +4267,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Torino - Bologna</t>
+          <t>Juventus - Como</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -2826,447 +4288,435 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>2/3</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4.038888888888889</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>2/3</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="L3" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3.444444444444445</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AH3" t="n">
         <v>8.5</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="O3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1/5</t>
-        </is>
-      </c>
-      <c r="W3" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>1/5</t>
-        </is>
-      </c>
-      <c r="Z3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4.777777777777778</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8</v>
-      </c>
       <c r="AI3" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23.7</v>
+        <v>22.6</v>
       </c>
       <c r="AK3" t="n">
-        <v>26.8</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>28</v>
+        <v>22.8</v>
       </c>
       <c r="AM3" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>37</v>
+        <v>38.1</v>
       </c>
       <c r="AP3" t="n">
-        <v>37.2</v>
+        <v>32.3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam - NEC Nijmegen</t>
+          <t>Lecce - Inter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sparta</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NEC</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>3.688888888888889</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="K4" t="n">
-        <v>11.5</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>29.55</v>
+        <v>25.9</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>22.45</v>
+        <v>25.7</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>7.9</v>
+        <v>4.95</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>38</v>
+        <v>37.65</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>3.388888888888889</v>
+        <v>3.625</v>
       </c>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>12.7</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.9</v>
+        <v>8.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.9</v>
+        <v>3.777777777777778</v>
       </c>
       <c r="AF4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="AM4" t="n">
         <v>4</v>
       </c>
-      <c r="AG4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AN4" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO4" t="n">
-        <v>37.2</v>
+        <v>43.3</v>
       </c>
       <c r="AP4" t="n">
-        <v>38.8</v>
+        <v>32</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3.111111111111111</v>
+        <v>4.25</v>
       </c>
       <c r="AR4" t="n">
-        <v>3.666666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eredivisie</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SC Heerenveen - PEC Zwolle</t>
+          <t>West Ham United - Bournemouth</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+        <v>11.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>3.083333333333333</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>4.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="K5" t="n">
-        <v>10.95</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>28.45</v>
+        <v>26.15</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>22.75</v>
+        <v>21.6</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>7.8</v>
+        <v>6.222222222222222</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>36.1</v>
+        <v>37.5</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>2.9</v>
+        <v>2.905555555555556</v>
       </c>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.6</v>
+        <v>12.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.666666666666667</v>
+        <v>3.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>10.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AI5" t="n">
-        <v>28.6</v>
+        <v>24.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="AK5" t="n">
-        <v>20.9</v>
+        <v>22.9</v>
       </c>
       <c r="AL5" t="n">
-        <v>24.6</v>
+        <v>20.3</v>
       </c>
       <c r="AM5" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.5</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="AO5" t="n">
-        <v>35.1</v>
+        <v>38.6</v>
       </c>
       <c r="AP5" t="n">
-        <v>37.1</v>
+        <v>36.4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AR5" t="n">
-        <v>3</v>
+        <v>3.111111111111111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RB Leipzig - VfL Wolfsburg</t>
+          <t>Brentford - Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.85</v>
+        <v>10.15</v>
       </c>
       <c r="F6" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2/5</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
       <c r="N6" t="n">
-        <v>26.1</v>
+        <v>24.2</v>
       </c>
       <c r="O6" t="n">
-        <v>27.5</v>
+        <v>24.5</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>5.550000000000001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>3/5</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="R6" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>3/5</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>3/5</t>
-        </is>
-      </c>
       <c r="W6" t="n">
-        <v>40.2</v>
+        <v>35.45</v>
       </c>
       <c r="X6" t="n">
-        <v>40.5</v>
+        <v>36.5</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
@@ -3274,108 +4724,120 @@
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>4</v>
+        <v>3.255555555555556</v>
       </c>
       <c r="AA6" t="n">
         <v>3.5</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>10.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="AI6" t="n">
-        <v>25.8</v>
+        <v>23.8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26.4</v>
+        <v>24.6</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.2</v>
+        <v>21.4</v>
       </c>
       <c r="AL6" t="n">
-        <v>19.7</v>
+        <v>22.2</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AO6" t="n">
-        <v>37.6</v>
+        <v>35.6</v>
       </c>
       <c r="AP6" t="n">
-        <v>42.8</v>
+        <v>35.3</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.2</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FC Augsburg - 1. FC Heidenheim</t>
+          <t>Chelsea - Burnley</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>9.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>3.794444444444444</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>4.45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>27.65</v>
+        <v>26.7</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>21.8</v>
+        <v>20.1</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -3385,1132 +4847,898 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>38.45</v>
+        <v>33.35</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>3.45</v>
+        <v>2.883333333333333</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.1</v>
+        <v>7.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.888888888888889</v>
+        <v>2.9</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AI7" t="n">
-        <v>27.3</v>
+        <v>25.3</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>21.4</v>
       </c>
       <c r="AL7" t="n">
-        <v>19.6</v>
+        <v>18.8</v>
       </c>
       <c r="AM7" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>35.1</v>
+        <v>29.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>41.8</v>
+        <v>37.2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Metz - Auxerre</t>
+          <t>Manchester City - Newcastle United</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.949999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="F8" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>1/5</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4.133333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
         <v>3.5</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="L8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
+        <v>8.649999999999999</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="O8" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
+        <v>26.1</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="R8" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
+        <v>5.550000000000001</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>36</v>
-      </c>
-      <c r="X8" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
+        <v>32.8</v>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>3.373015873015873</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>3.666666666666667</v>
+        <v>4.6</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AI8" t="n">
-        <v>23.3</v>
+        <v>24.7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22.4</v>
+        <v>27.5</v>
       </c>
       <c r="AK8" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="AL8" t="n">
         <v>20.8</v>
       </c>
-      <c r="AL8" t="n">
-        <v>26.6</v>
-      </c>
       <c r="AM8" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>34.8</v>
+        <v>34.4</v>
       </c>
       <c r="AP8" t="n">
-        <v>37.2</v>
+        <v>31.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.857142857142857</v>
+        <v>4.3</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.888888888888889</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Olympique Lyonnais - Nice</t>
+          <t>Aston Villa - Leeds United</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9.75</v>
+        <v>10.95</v>
       </c>
       <c r="F9" t="n">
         <v>9.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3/5</t>
+          <t>0/1</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4.55</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0/5</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="O9" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
+        <v>26.15</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="R9" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
+        <v>19.35</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="U9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>35.65000000000001</v>
-      </c>
-      <c r="X9" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>1/5</t>
-        </is>
-      </c>
+        <v>33.85</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>2.888888888888889</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>2/4</t>
-        </is>
-      </c>
+        <v>4.461111111111111</v>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>10.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.1</v>
+        <v>11.3</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="AG9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AI9" t="n">
-        <v>22.9</v>
+        <v>27.2</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>25.1</v>
       </c>
       <c r="AK9" t="n">
-        <v>24.4</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>25.4</v>
+        <v>18.7</v>
       </c>
       <c r="AM9" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.7</v>
+        <v>4.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>37.7</v>
+        <v>29.6</v>
       </c>
       <c r="AP9" t="n">
-        <v>33.6</v>
+        <v>38.1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.666666666666667</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.111111111111111</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lorient - Angers</t>
+          <t>AFC Ajax - NEC Nijmegen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
+        <v>4.305555555555555</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
+        <v>11.15</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="O10" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
+        <v>28.95</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="R10" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
+        <v>22.4</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="U10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
+        <v>7.4</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
         <v>35.1</v>
       </c>
-      <c r="X10" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
+        <v>3.316666666666666</v>
+      </c>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.2</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="AG10" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AN10" t="n">
         <v>6.9</v>
       </c>
-      <c r="AH10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AO10" t="n">
-        <v>32.7</v>
+        <v>30.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>37.5</v>
+        <v>39.7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.8</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Levante UD - Valencia</t>
+          <t>NAC Breda - FC Volendam</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9.65</v>
+        <v>10.55</v>
       </c>
       <c r="F11" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
+        <v>4.127777777777778</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>7.550000000000001</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
+        <v>10.4</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>24.85</v>
-      </c>
-      <c r="O11" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
+        <v>28.55</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
+        <v>22.65</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="U11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
+        <v>7.75</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="X11" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
+        <v>37.8</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>3.922222222222222</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
+        <v>3.622222222222222</v>
+      </c>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="AD11" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>4.555555555555555</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
         <v>10.8</v>
       </c>
-      <c r="AE11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AI11" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23.1</v>
+        <v>29.9</v>
       </c>
       <c r="AK11" t="n">
-        <v>25.9</v>
+        <v>23.3</v>
       </c>
       <c r="AL11" t="n">
-        <v>24.3</v>
+        <v>22</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.1</v>
+        <v>8.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>35.8</v>
+        <v>40.7</v>
       </c>
       <c r="AP11" t="n">
-        <v>41</v>
+        <v>34.9</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3.4</v>
+        <v>3.444444444444445</v>
       </c>
       <c r="AR11" t="n">
-        <v>4.444444444444445</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rayo Vallecano - Atlético Madrid</t>
+          <t>PSV Eindhoven - SC Heerenveen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Atl. Madrid</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10.4</v>
+        <v>11.3</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>8.449999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>24.95</v>
+        <v>27</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>22.4</v>
+        <v>20.1</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>40.3</v>
+        <v>35.4</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>4.022222222222222</v>
+        <v>3.066666666666666</v>
       </c>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>10.2</v>
+        <v>12.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.9</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.9</v>
+        <v>10.7</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23.9</v>
+        <v>27.9</v>
       </c>
       <c r="AK12" t="n">
-        <v>25.1</v>
+        <v>19.2</v>
       </c>
       <c r="AL12" t="n">
-        <v>19.7</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AN12" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>44.4</v>
+        <v>34.8</v>
       </c>
       <c r="AP12" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.6</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.444444444444445</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mallorca - Real Betis</t>
+          <t>FC Bayern München - Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Bayern</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Frankfurt</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
+        <v>8.949999999999999</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>4.338888888888889</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>3/5</t>
-        </is>
-      </c>
+        <v>4.5625</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
+        <v>10.85</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
+        <v>26.5</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="R13" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
+        <v>18.8</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="U13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
+        <v>6.25</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
+        <v>36.15</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>3.9125</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>3/5</t>
-        </is>
-      </c>
+        <v>4.35</v>
+      </c>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>4.777777777777778</v>
+        <v>4.125</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.199999999999999</v>
+        <v>12.9</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AI13" t="n">
-        <v>25.5</v>
+        <v>29.7</v>
       </c>
       <c r="AJ13" t="n">
-        <v>28.7</v>
+        <v>23.3</v>
       </c>
       <c r="AK13" t="n">
-        <v>22.8</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>24.4</v>
+        <v>22.1</v>
       </c>
       <c r="AM13" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="AO13" t="n">
-        <v>39.2</v>
+        <v>31.4</v>
       </c>
       <c r="AP13" t="n">
-        <v>35.8</v>
+        <v>40.9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.125</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Super Lig</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Başakşehir FK - Beşiktaş</t>
+          <t>RB Leipzig - Borussia Dortmund</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Başakşehir</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
+        <v>8.899999999999999</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>5.227777777777778</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2/3</t>
-        </is>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>11</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
+        <v>9.649999999999999</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>29.95</v>
-      </c>
-      <c r="O14" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
+        <v>25.5</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>25.9</v>
+        <v>20.15</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>7.55</v>
+        <v>5.9</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>35.55</v>
-      </c>
-      <c r="X14" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
+        <v>39.05</v>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>4.016666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="n">
-        <v>10.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.555555555555555</v>
+        <v>2.9</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="AH14" t="n">
-        <v>11.5</v>
+        <v>9.1</v>
       </c>
       <c r="AI14" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>32.4</v>
+        <v>24.9</v>
       </c>
       <c r="AK14" t="n">
-        <v>26.4</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>25.4</v>
+        <v>21.3</v>
       </c>
       <c r="AM14" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>35.2</v>
+        <v>38.3</v>
       </c>
       <c r="AP14" t="n">
-        <v>35.9</v>
+        <v>39.8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3.7</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="AR14" t="n">
-        <v>4.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Super Lig</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Göztepe - Kayserispor</t>
+          <t>1. FC Union Berlin - Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Göztepe</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9.100000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>4.95</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -4520,187 +5748,163 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>27.25</v>
+        <v>25</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
-        <v>25.8</v>
+        <v>20.3</v>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>6.466666666666667</v>
+        <v>5.6</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>37.5</v>
+        <v>37.1</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>2.4125</v>
+        <v>2.505555555555556</v>
       </c>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="AF15" t="n">
         <v>4.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AI15" t="n">
-        <v>26.6</v>
+        <v>24.3</v>
       </c>
       <c r="AJ15" t="n">
-        <v>27.9</v>
+        <v>25.7</v>
       </c>
       <c r="AK15" t="n">
-        <v>27.3</v>
+        <v>21.7</v>
       </c>
       <c r="AL15" t="n">
-        <v>24.3</v>
+        <v>18.9</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.333333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>42.4</v>
+        <v>42</v>
       </c>
       <c r="AP15" t="n">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.2</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Liga Portugal Betclic</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sporting - Famalicão</t>
+          <t>VfL Wolfsburg - FC Augsburg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sporting</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="F16" t="n">
         <v>9.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2/5</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4.85</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>9.25</v>
       </c>
-      <c r="L16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="O16" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>3/5</t>
-        </is>
-      </c>
+        <v>26.95</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="R16" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
+        <v>21.45</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>33.75</v>
-      </c>
-      <c r="X16" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2/5</t>
-        </is>
-      </c>
+        <v>39.15000000000001</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>2.327777777777778</v>
+        <v>3.5</v>
       </c>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AE16" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AG16" t="n">
         <v>9.800000000000001</v>
@@ -4709,290 +5913,1920 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AI16" t="n">
-        <v>25.1</v>
+        <v>26.9</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22.6</v>
+        <v>27</v>
       </c>
       <c r="AK16" t="n">
-        <v>26.4</v>
+        <v>19.7</v>
       </c>
       <c r="AL16" t="n">
-        <v>31.4</v>
+        <v>23.2</v>
       </c>
       <c r="AM16" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>30.1</v>
+        <v>42.2</v>
       </c>
       <c r="AP16" t="n">
-        <v>37.4</v>
+        <v>36.1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.555555555555555</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.1</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Liga Portugal Betclic</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AVS - Futebol SAD - Estoril Praia</t>
+          <t>1. FC Köln - TSG Hoffenheim</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Köln</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.100000000000001</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="H17" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>4.177777777777777</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="K17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.399999999999999</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>24.95</v>
+        <v>26.65</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>24.1</v>
+        <v>19.6</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>5.95</v>
+        <v>6.35</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>39.4</v>
+        <v>40.9</v>
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
-        <v>3.7</v>
+        <v>3.622222222222222</v>
       </c>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="AE17" t="n">
-        <v>5.3</v>
+        <v>4.555555555555555</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH17" t="n">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
       <c r="AI17" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23.6</v>
+        <v>26.6</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>25.2</v>
+        <v>22.2</v>
       </c>
       <c r="AM17" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>41.9</v>
+        <v>38.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>36.9</v>
+        <v>43.3</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4.2</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AR17" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Liga Portugal Betclic</t>
+          <t>LaLiga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CD Nacional - FC Porto</t>
+          <t>Real Sociedad - Real Oviedo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Real Oviedo</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.1</v>
+        <v>9.75</v>
       </c>
       <c r="F18" t="n">
         <v>9.5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0/3</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4.85</v>
+        <v>4.35</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0/3</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
+        <v>8.5</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="O18" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="R18" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
+        <v>25.45</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>38.25</v>
-      </c>
-      <c r="X18" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>2/3</t>
-        </is>
-      </c>
+        <v>37.8</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
-        <v>3.4</v>
+        <v>4.772222222222222</v>
       </c>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>4.444444444444445</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Osasuna - Real Madrid</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="n">
+        <v>2.933333333333334</v>
+      </c>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Atlético Madrid - Espanyol</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Atl. Madrid</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>8.100000000000001</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>23</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>4.444444444444445</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>3.555555555555555</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Real Betis - Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>39.55</v>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Super Lig</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Eyüpspor - Gençlerbirliği</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Eyüpspor</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Gençlerbirliği</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4.394444444444445</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>5.949999999999999</v>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>4.888888888888889</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Super Lig</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Alanyaspor - Başakşehir FK</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Başakşehir</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4.372222222222222</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AD23" t="n">
         <v>10.2</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>4.444444444444445</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Super Lig</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Konyaspor - Galatasaray</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>8.649999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain - Metz</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>3.111111111111111</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
+        <v>3.708333333333333</v>
+      </c>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>3.555555555555555</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Toulouse - Paris FC</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>8.649999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
+        <v>3.222222222222222</v>
+      </c>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>3.777777777777778</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RC Lens - AS Monaco</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>AS Monaco</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
+        <v>4.284722222222222</v>
+      </c>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG27" t="n">
         <v>8</v>
       </c>
-      <c r="AE18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AH27" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>4.444444444444445</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FC Alverca - Santa Clara</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>5.077777777777778</v>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>40</v>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
+        <v>2.761111111111111</v>
+      </c>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.555555555555555</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>2.222222222222222</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FC Arouca - CD Nacional</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>26</v>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Moreirense - Sporting</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sporting</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="n">
+        <v>34.90000000000001</v>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
+        <v>3.444444444444445</v>
+      </c>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>2.888888888888889</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sporting Braga - Vitória SC</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
+        <v>2.805555555555555</v>
+      </c>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3.111111111111111</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Liga Portugal Betclic</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Benfica - AVS - Futebol SAD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>5.699999999999999</v>
+      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
+        <v>3.038888888888889</v>
+      </c>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE32" t="n">
         <v>4.9</v>
       </c>
-      <c r="AG18" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ18" t="n">
+      <c r="AF32" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AI32" t="n">
         <v>23.5</v>
       </c>
-      <c r="AK18" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM18" t="n">
+      <c r="AJ32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AN32" t="n">
         <v>5.8</v>
       </c>
-      <c r="AN18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>2.6</v>
+      <c r="AO32" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>

--- a/stats_averages.xlsx
+++ b/stats_averages.xlsx
@@ -4305,33 +4305,69 @@
       <c r="K3" t="n">
         <v>9.449999999999999</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="N3" t="n">
         <v>25.1</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="Q3" t="n">
         <v>22.4</v>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
       <c r="T3" t="n">
         <v>6.6</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="W3" t="n">
         <v>35.2</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="Z3" t="n">
         <v>3.45</v>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="AC3" t="n">
         <v>9.1</v>
       </c>
@@ -4829,23 +4865,47 @@
       <c r="K7" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="N7" t="n">
         <v>26.7</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="Q7" t="n">
         <v>20.1</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="T7" t="n">
         <v>5.85</v>
       </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="W7" t="n">
         <v>33.35</v>
       </c>
@@ -4854,8 +4914,14 @@
       <c r="Z7" t="n">
         <v>2.883333333333333</v>
       </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="AC7" t="n">
         <v>10.6</v>
       </c>
@@ -5073,33 +5139,69 @@
       <c r="K9" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="N9" t="n">
         <v>26.15</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="Q9" t="n">
         <v>19.35</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="T9" t="n">
         <v>6</v>
       </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="W9" t="n">
         <v>33.85</v>
       </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Z9" t="n">
         <v>4.461111111111111</v>
       </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="AC9" t="n">
         <v>10.6</v>
       </c>
@@ -6111,33 +6213,69 @@
       <c r="K18" t="n">
         <v>8.5</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="N18" t="n">
         <v>25</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Q18" t="n">
         <v>25.45</v>
       </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="T18" t="n">
         <v>5.7</v>
       </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="W18" t="n">
         <v>37.8</v>
       </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Z18" t="n">
         <v>4.772222222222222</v>
       </c>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="AC18" t="n">
         <v>10.5</v>
       </c>
@@ -6465,33 +6603,69 @@
       <c r="K21" t="n">
         <v>10.25</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="N21" t="n">
         <v>28.15</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="Q21" t="n">
         <v>24.2</v>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="T21" t="n">
         <v>7.25</v>
       </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="W21" t="n">
         <v>39.55</v>
       </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="Z21" t="n">
         <v>4.1</v>
       </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="AC21" t="n">
         <v>10</v>
       </c>

--- a/stats_averages.xlsx
+++ b/stats_averages.xlsx
@@ -4183,33 +4183,69 @@
       <c r="K2" t="n">
         <v>7.649999999999999</v>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="N2" t="n">
         <v>25.05</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="Q2" t="n">
         <v>26.5</v>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="T2" t="n">
         <v>5.25</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="W2" t="n">
         <v>34.65</v>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="Z2" t="n">
         <v>2.277777777777778</v>
       </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
       <c r="AC2" t="n">
         <v>9.699999999999999</v>
       </c>
@@ -4463,33 +4499,69 @@
       <c r="K4" t="n">
         <v>7.800000000000001</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="N4" t="n">
         <v>25.9</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="Q4" t="n">
         <v>25.7</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="T4" t="n">
         <v>4.95</v>
       </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="W4" t="n">
         <v>37.65</v>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="Z4" t="n">
         <v>3.625</v>
       </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
       <c r="AC4" t="n">
         <v>9</v>
       </c>
@@ -4585,33 +4657,69 @@
       <c r="K5" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="N5" t="n">
         <v>26.15</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="Q5" t="n">
         <v>21.6</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="T5" t="n">
         <v>6.222222222222222</v>
       </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="W5" t="n">
         <v>37.5</v>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="Z5" t="n">
         <v>2.905555555555556</v>
       </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="AC5" t="n">
         <v>9.800000000000001</v>
       </c>
@@ -4877,11 +4985,11 @@
         <v>26.7</v>
       </c>
       <c r="O7" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2/3</t>
+          <t>1/3</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -4909,8 +5017,14 @@
       <c r="W7" t="n">
         <v>33.35</v>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="Z7" t="n">
         <v>2.883333333333333</v>
       </c>
@@ -5311,8 +5425,14 @@
       <c r="W10" t="n">
         <v>35.1</v>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="Z10" t="n">
         <v>3.316666666666666</v>
       </c>
@@ -5427,8 +5547,14 @@
       <c r="W11" t="n">
         <v>37.8</v>
       </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Z11" t="n">
         <v>3.622222222222222</v>
       </c>
@@ -5969,33 +6095,69 @@
       <c r="K16" t="n">
         <v>9.25</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="N16" t="n">
         <v>26.95</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="Q16" t="n">
         <v>21.45</v>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="T16" t="n">
         <v>6</v>
       </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="W16" t="n">
         <v>39.15000000000001</v>
       </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="Z16" t="n">
         <v>3.5</v>
       </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="AC16" t="n">
         <v>10.5</v>
       </c>
@@ -6091,33 +6253,69 @@
       <c r="K17" t="n">
         <v>9.399999999999999</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="N17" t="n">
         <v>26.65</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="Q17" t="n">
         <v>19.6</v>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="T17" t="n">
         <v>6.35</v>
       </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="W17" t="n">
         <v>40.9</v>
       </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="Z17" t="n">
         <v>3.622222222222222</v>
       </c>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="AC17" t="n">
         <v>9.300000000000001</v>
       </c>
@@ -6750,8 +6948,14 @@
       <c r="H22" t="n">
         <v>4.394444444444445</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="K22" t="n">
         <v>9.5</v>
       </c>
@@ -6775,8 +6979,14 @@
       <c r="W22" t="n">
         <v>40.3</v>
       </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Z22" t="n">
         <v>4.2</v>
       </c>
@@ -6866,8 +7076,14 @@
       <c r="H23" t="n">
         <v>4.372222222222222</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="K23" t="n">
         <v>9.35</v>
       </c>
@@ -6891,8 +7107,14 @@
       <c r="W23" t="n">
         <v>34.35</v>
       </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="Z23" t="n">
         <v>3.5</v>
       </c>
@@ -6982,8 +7204,14 @@
       <c r="H24" t="n">
         <v>4.65</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="K24" t="n">
         <v>8.5</v>
       </c>
@@ -7007,8 +7235,14 @@
       <c r="W24" t="n">
         <v>36.9</v>
       </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="Z24" t="n">
         <v>3.5</v>
       </c>
@@ -7219,33 +7453,69 @@
       <c r="K26" t="n">
         <v>7.8</v>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="N26" t="n">
         <v>22.75</v>
       </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="Q26" t="n">
         <v>25.2</v>
       </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="T26" t="n">
         <v>5.3</v>
       </c>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="W26" t="n">
         <v>34.25</v>
       </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="X26" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="Z26" t="n">
         <v>3.222222222222222</v>
       </c>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
+      <c r="AA26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="AC26" t="n">
         <v>9.199999999999999</v>
       </c>
@@ -7341,33 +7611,69 @@
       <c r="K27" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="N27" t="n">
         <v>24.3</v>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="Q27" t="n">
         <v>26.15</v>
       </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="T27" t="n">
         <v>6.05</v>
       </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="W27" t="n">
         <v>38.35</v>
       </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="X27" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="Z27" t="n">
         <v>4.284722222222222</v>
       </c>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
+      <c r="AA27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
       <c r="AC27" t="n">
         <v>7.7</v>
       </c>
@@ -7452,8 +7758,14 @@
       <c r="H28" t="n">
         <v>5.35</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="K28" t="n">
         <v>7.1</v>
       </c>
@@ -7477,8 +7789,14 @@
       <c r="W28" t="n">
         <v>40</v>
       </c>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Z28" t="n">
         <v>2.761111111111111</v>
       </c>
@@ -7568,8 +7886,14 @@
       <c r="H29" t="n">
         <v>5.45</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="K29" t="n">
         <v>8.5</v>
       </c>
@@ -7593,8 +7917,14 @@
       <c r="W29" t="n">
         <v>40.59999999999999</v>
       </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="Z29" t="n">
         <v>4.4</v>
       </c>
@@ -7684,8 +8014,14 @@
       <c r="H30" t="n">
         <v>5.15</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="K30" t="n">
         <v>8.199999999999999</v>
       </c>
@@ -7727,8 +8063,14 @@
       <c r="W30" t="n">
         <v>34.90000000000001</v>
       </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="Z30" t="n">
         <v>3.444444444444445</v>
       </c>

--- a/stats_averages.xlsx
+++ b/stats_averages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="full" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="full" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4183,33 +4183,69 @@
       <c r="K2" t="n">
         <v>7.649999999999999</v>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="N2" t="n">
         <v>25.05</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="Q2" t="n">
         <v>26.5</v>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="T2" t="n">
         <v>5.25</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="W2" t="n">
         <v>34.65</v>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="Z2" t="n">
         <v>2.277777777777778</v>
       </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
       <c r="AC2" t="n">
         <v>9.699999999999999</v>
       </c>
@@ -4305,33 +4341,69 @@
       <c r="K3" t="n">
         <v>9.449999999999999</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="N3" t="n">
         <v>25.1</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="Q3" t="n">
         <v>22.4</v>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
       <c r="T3" t="n">
         <v>6.6</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="W3" t="n">
         <v>35.2</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="Z3" t="n">
         <v>3.45</v>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="AC3" t="n">
         <v>9.1</v>
       </c>
@@ -4427,33 +4499,69 @@
       <c r="K4" t="n">
         <v>7.800000000000001</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="N4" t="n">
         <v>25.9</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="Q4" t="n">
         <v>25.7</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="T4" t="n">
         <v>4.95</v>
       </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="W4" t="n">
         <v>37.65</v>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="Z4" t="n">
         <v>3.625</v>
       </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
       <c r="AC4" t="n">
         <v>9</v>
       </c>
@@ -4549,33 +4657,69 @@
       <c r="K5" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="N5" t="n">
         <v>26.15</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="Q5" t="n">
         <v>21.6</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="T5" t="n">
         <v>6.222222222222222</v>
       </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="W5" t="n">
         <v>37.5</v>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="Z5" t="n">
         <v>2.905555555555556</v>
       </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="AC5" t="n">
         <v>9.800000000000001</v>
       </c>
@@ -4829,33 +4973,69 @@
       <c r="K7" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="N7" t="n">
         <v>26.7</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="Q7" t="n">
         <v>20.1</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="T7" t="n">
         <v>5.85</v>
       </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="W7" t="n">
         <v>33.35</v>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="Z7" t="n">
         <v>2.883333333333333</v>
       </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="AC7" t="n">
         <v>10.6</v>
       </c>
@@ -4952,32 +5132,56 @@
         <v>8.649999999999999</v>
       </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="N8" t="n">
         <v>26.1</v>
       </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="Q8" t="n">
         <v>22</v>
       </c>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="T8" t="n">
         <v>5.550000000000001</v>
       </c>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="W8" t="n">
         <v>32.8</v>
       </c>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="Z8" t="n">
         <v>3.6</v>
       </c>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="AC8" t="n">
         <v>8.300000000000001</v>
       </c>
@@ -5073,33 +5277,69 @@
       <c r="K9" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="N9" t="n">
         <v>26.15</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="Q9" t="n">
         <v>19.35</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="T9" t="n">
         <v>6</v>
       </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="W9" t="n">
         <v>33.85</v>
       </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Z9" t="n">
         <v>4.461111111111111</v>
       </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="AC9" t="n">
         <v>10.6</v>
       </c>
@@ -5185,37 +5425,67 @@
         <v>4.305555555555555</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="K10" t="n">
         <v>11.15</v>
       </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="N10" t="n">
         <v>28.95</v>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="Q10" t="n">
         <v>22.4</v>
       </c>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="T10" t="n">
         <v>7.4</v>
       </c>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="W10" t="n">
         <v>35.1</v>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="Z10" t="n">
         <v>3.316666666666666</v>
       </c>
       <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
       <c r="AC10" t="n">
         <v>8.1</v>
       </c>
@@ -5301,37 +5571,67 @@
         <v>4.127777777777778</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="K11" t="n">
         <v>10.4</v>
       </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="N11" t="n">
         <v>28.55</v>
       </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Q11" t="n">
         <v>22.65</v>
       </c>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="T11" t="n">
         <v>7.75</v>
       </c>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="W11" t="n">
         <v>37.8</v>
       </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Z11" t="n">
         <v>3.622222222222222</v>
       </c>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="AC11" t="n">
         <v>9.9</v>
       </c>
@@ -5405,43 +5705,79 @@
       <c r="E12" t="n">
         <v>11.3</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="H12" t="n">
         <v>3.25</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
       <c r="K12" t="n">
         <v>10.2</v>
       </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="N12" t="n">
         <v>27</v>
       </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="Q12" t="n">
         <v>20.1</v>
       </c>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="T12" t="n">
         <v>6.8</v>
       </c>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="W12" t="n">
         <v>35.4</v>
       </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="Z12" t="n">
         <v>3.066666666666666</v>
       </c>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
       <c r="AC12" t="n">
         <v>12.7</v>
       </c>
@@ -5515,43 +5851,91 @@
       <c r="E13" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="H13" t="n">
         <v>4.5625</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="K13" t="n">
         <v>10.85</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="N13" t="n">
         <v>26.5</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="Q13" t="n">
         <v>18.8</v>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="T13" t="n">
         <v>6.25</v>
       </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="W13" t="n">
         <v>36.15</v>
       </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="Z13" t="n">
         <v>4.35</v>
       </c>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="AC13" t="n">
         <v>9.300000000000001</v>
       </c>
@@ -5625,43 +6009,91 @@
       <c r="E14" t="n">
         <v>8.899999999999999</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="K14" t="n">
         <v>9.649999999999999</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="N14" t="n">
         <v>25.5</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="Q14" t="n">
         <v>20.15</v>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="T14" t="n">
         <v>5.9</v>
       </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="W14" t="n">
         <v>39.05</v>
       </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="Z14" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="AC14" t="n">
         <v>8.199999999999999</v>
       </c>
@@ -5735,43 +6167,91 @@
       <c r="E15" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="H15" t="n">
         <v>4.2</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="K15" t="n">
         <v>8.5</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="N15" t="n">
         <v>25</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="Q15" t="n">
         <v>20.3</v>
       </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="T15" t="n">
         <v>5.6</v>
       </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="W15" t="n">
         <v>37.1</v>
       </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="Z15" t="n">
         <v>2.505555555555556</v>
       </c>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="AC15" t="n">
         <v>8.800000000000001</v>
       </c>
@@ -5867,33 +6347,69 @@
       <c r="K16" t="n">
         <v>9.25</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="N16" t="n">
         <v>26.95</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="Q16" t="n">
         <v>21.45</v>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="T16" t="n">
         <v>6</v>
       </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="W16" t="n">
         <v>39.15000000000001</v>
       </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="Z16" t="n">
         <v>3.5</v>
       </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="AC16" t="n">
         <v>10.5</v>
       </c>
@@ -5989,33 +6505,69 @@
       <c r="K17" t="n">
         <v>9.399999999999999</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="N17" t="n">
         <v>26.65</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="Q17" t="n">
         <v>19.6</v>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="T17" t="n">
         <v>6.35</v>
       </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="W17" t="n">
         <v>40.9</v>
       </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="Z17" t="n">
         <v>3.622222222222222</v>
       </c>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="AC17" t="n">
         <v>9.300000000000001</v>
       </c>
@@ -6111,33 +6663,69 @@
       <c r="K18" t="n">
         <v>8.5</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="N18" t="n">
         <v>25</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Q18" t="n">
         <v>25.45</v>
       </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="T18" t="n">
         <v>5.7</v>
       </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="W18" t="n">
         <v>37.8</v>
       </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Z18" t="n">
         <v>4.772222222222222</v>
       </c>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="AC18" t="n">
         <v>10.5</v>
       </c>
@@ -6211,43 +6799,89 @@
       <c r="E19" t="n">
         <v>10.15</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="H19" t="n">
         <v>4.95</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="K19" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="N19" t="n">
         <v>25.35</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="Q19" t="n">
         <v>24.45</v>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="T19" t="n">
         <v>6.25</v>
       </c>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="W19" t="n">
         <v>33.2</v>
       </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="Z19" t="n">
         <v>2.933333333333334</v>
       </c>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
       <c r="AC19" t="n">
         <v>9</v>
       </c>
@@ -6343,33 +6977,69 @@
       <c r="K20" t="n">
         <v>8.100000000000001</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
       <c r="N20" t="n">
         <v>23</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
       <c r="Q20" t="n">
         <v>23.75</v>
       </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
       <c r="T20" t="n">
         <v>5.65</v>
       </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
       <c r="W20" t="n">
         <v>37.05</v>
       </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
       <c r="Z20" t="n">
         <v>4</v>
       </c>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
       <c r="AC20" t="n">
         <v>10.9</v>
       </c>
@@ -6465,33 +7135,69 @@
       <c r="K21" t="n">
         <v>10.25</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="N21" t="n">
         <v>28.15</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="Q21" t="n">
         <v>24.2</v>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="T21" t="n">
         <v>7.25</v>
       </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="W21" t="n">
         <v>39.55</v>
       </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="Z21" t="n">
         <v>4.1</v>
       </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="AC21" t="n">
         <v>10</v>
       </c>
@@ -6576,38 +7282,70 @@
       <c r="H22" t="n">
         <v>4.394444444444445</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="K22" t="n">
         <v>9.5</v>
       </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="N22" t="n">
         <v>27.2</v>
       </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Q22" t="n">
         <v>26.35</v>
       </c>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="T22" t="n">
         <v>5.949999999999999</v>
       </c>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="W22" t="n">
         <v>40.3</v>
       </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Z22" t="n">
         <v>4.2</v>
       </c>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="AC22" t="n">
         <v>9.199999999999999</v>
       </c>
@@ -6692,38 +7430,70 @@
       <c r="H23" t="n">
         <v>4.372222222222222</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="K23" t="n">
         <v>9.35</v>
       </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="N23" t="n">
         <v>25.2</v>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="Q23" t="n">
         <v>26.6</v>
       </c>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="T23" t="n">
         <v>6.25</v>
       </c>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="W23" t="n">
         <v>34.35</v>
       </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="Z23" t="n">
         <v>3.5</v>
       </c>
       <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="AC23" t="n">
         <v>8.9</v>
       </c>
@@ -6808,38 +7578,70 @@
       <c r="H24" t="n">
         <v>4.65</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="K24" t="n">
         <v>8.5</v>
       </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="N24" t="n">
         <v>27.4</v>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="Q24" t="n">
         <v>24.25</v>
       </c>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="T24" t="n">
         <v>5.4</v>
       </c>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="W24" t="n">
         <v>36.9</v>
       </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="Z24" t="n">
         <v>3.5</v>
       </c>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="AC24" t="n">
         <v>8.199999999999999</v>
       </c>
@@ -6913,43 +7715,87 @@
       <c r="E25" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
       <c r="H25" t="n">
         <v>3.111111111111111</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="K25" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="N25" t="n">
         <v>25.85</v>
       </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="Q25" t="n">
         <v>19.6</v>
       </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="T25" t="n">
         <v>6.8</v>
       </c>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="W25" t="n">
         <v>32.45</v>
       </c>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="Z25" t="n">
         <v>3.708333333333333</v>
       </c>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
       <c r="AC25" t="n">
         <v>9.4</v>
       </c>
@@ -7045,33 +7891,69 @@
       <c r="K26" t="n">
         <v>7.8</v>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="N26" t="n">
         <v>22.75</v>
       </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="Q26" t="n">
         <v>25.2</v>
       </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="T26" t="n">
         <v>5.3</v>
       </c>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="W26" t="n">
         <v>34.25</v>
       </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="X26" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="Z26" t="n">
         <v>3.222222222222222</v>
       </c>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
+      <c r="AA26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="AC26" t="n">
         <v>9.199999999999999</v>
       </c>
@@ -7167,33 +8049,69 @@
       <c r="K27" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="N27" t="n">
         <v>24.3</v>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="Q27" t="n">
         <v>26.15</v>
       </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="T27" t="n">
         <v>6.05</v>
       </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="W27" t="n">
         <v>38.35</v>
       </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="X27" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="Z27" t="n">
         <v>4.284722222222222</v>
       </c>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
+      <c r="AA27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
       <c r="AC27" t="n">
         <v>7.7</v>
       </c>
@@ -7278,38 +8196,70 @@
       <c r="H28" t="n">
         <v>5.35</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
       <c r="K28" t="n">
         <v>7.1</v>
       </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="N28" t="n">
         <v>22.15</v>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Q28" t="n">
         <v>28.4</v>
       </c>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="T28" t="n">
         <v>5.077777777777778</v>
       </c>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="W28" t="n">
         <v>40</v>
       </c>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="Z28" t="n">
         <v>2.761111111111111</v>
       </c>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
       <c r="AC28" t="n">
         <v>8.699999999999999</v>
       </c>
@@ -7394,38 +8344,70 @@
       <c r="H29" t="n">
         <v>5.45</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
       <c r="K29" t="n">
         <v>8.5</v>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="N29" t="n">
         <v>25.5</v>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="Q29" t="n">
         <v>26</v>
       </c>
       <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="T29" t="n">
         <v>5.45</v>
       </c>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="W29" t="n">
         <v>40.59999999999999</v>
       </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
       <c r="Z29" t="n">
         <v>4.4</v>
       </c>
       <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
       <c r="AC29" t="n">
         <v>8.800000000000001</v>
       </c>
@@ -7510,8 +8492,14 @@
       <c r="H30" t="n">
         <v>5.15</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
       <c r="K30" t="n">
         <v>8.199999999999999</v>
       </c>
@@ -7549,17 +8537,31 @@
         <v>5.7</v>
       </c>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="W30" t="n">
         <v>34.90000000000001</v>
       </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="Z30" t="n">
         <v>3.444444444444445</v>
       </c>
       <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
       <c r="AC30" t="n">
         <v>7.7</v>
       </c>
@@ -7633,43 +8635,81 @@
       <c r="E31" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
       <c r="H31" t="n">
         <v>5.4</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
       <c r="K31" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="N31" t="n">
         <v>23.15</v>
       </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="Q31" t="n">
         <v>27.75</v>
       </c>
       <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="T31" t="n">
         <v>5.35</v>
       </c>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
       <c r="W31" t="n">
         <v>37.75</v>
       </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
       <c r="Z31" t="n">
         <v>2.805555555555555</v>
       </c>
       <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
       <c r="AC31" t="n">
         <v>8.9</v>
       </c>
@@ -7743,43 +8783,81 @@
       <c r="E32" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
       <c r="H32" t="n">
         <v>5.25</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
       <c r="K32" t="n">
         <v>8.75</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
       <c r="N32" t="n">
         <v>25.25</v>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
       <c r="Q32" t="n">
         <v>25.5</v>
       </c>
       <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
       <c r="T32" t="n">
         <v>5.699999999999999</v>
       </c>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
       <c r="W32" t="n">
         <v>39.9</v>
       </c>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
+      <c r="X32" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
       <c r="Z32" t="n">
         <v>3.038888888888889</v>
       </c>
       <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
       <c r="AC32" t="n">
         <v>8.9</v>
       </c>
